--- a/src/test/resources/datadriven/Pagos/Pago_historial_data.xlsx
+++ b/src/test/resources/datadriven/Pagos/Pago_historial_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macboockprochm3572/Documents/rimac/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/Pagos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1F1250-76CF-6145-A05F-DEE8781D7A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C548356C-005C-B742-8484-8750F4CF95F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="760" windowWidth="25960" windowHeight="18880" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
+    <workbookView xWindow="4280" yWindow="760" windowWidth="25960" windowHeight="18880" activeTab="1" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
   </bookViews>
   <sheets>
     <sheet name="CronogramaPagosVehicular" sheetId="1" r:id="rId1"/>
@@ -55,29 +55,29 @@
     <t>vigencia</t>
   </si>
   <si>
-    <t>43220212</t>
+    <t>40898250</t>
   </si>
   <si>
-    <t>ACY-347</t>
+    <t>SIN-DAT</t>
   </si>
   <si>
-    <t>12/07/2025</t>
+    <t>24/08/2025</t>
   </si>
   <si>
-    <t>15602689</t>
+    <t>40883522</t>
   </si>
   <si>
-    <t>IDO-89D</t>
+    <t>B2L-001</t>
   </si>
   <si>
-    <t>04/09/2025</t>
+    <t>07/05/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,29 +91,16 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor rgb="FFE2EFDA"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -169,36 +156,56 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA9D08E"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -337,24 +344,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <name val="Helvetica Neue"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -384,20 +373,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -470,42 +445,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFDA"/>
-          <bgColor rgb="FFE2EFDA"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FFA9D08E"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -591,11 +530,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8421684D-64BE-6543-A63D-56478229419C}" name="Tabla3" displayName="Tabla3" ref="A1:D2" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8421684D-64BE-6543-A63D-56478229419C}" name="Tabla3" displayName="Tabla3" ref="A1:D2" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E6064DC8-CBA2-A84F-B806-649A14D552B1}" name="numeroUsuario" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{018C0E61-48B0-A646-A94A-E7D1C21BCCF9}" name="contrasena" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{6A76EB7D-171E-7F49-8A86-9794B3876387}" name="placa" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{E6064DC8-CBA2-A84F-B806-649A14D552B1}" name="numeroUsuario" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{018C0E61-48B0-A646-A94A-E7D1C21BCCF9}" name="contrasena" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{6A76EB7D-171E-7F49-8A86-9794B3876387}" name="placa"/>
     <tableColumn id="4" xr3:uid="{E0C83000-B072-674F-8D44-0EA1D04B7DED}" name="vigencia" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -605,22 +544,22 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{13FA4875-8E54-084E-AAD7-F8DB05AD9098}" name="Tabla33" displayName="Tabla33" ref="A1:D2" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{876CCFCE-44AF-314D-A7D0-391BC2E5C61F}" name="numeroUsuario" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{EE8EC51C-22E7-1941-A05E-F410F3CE11F0}" name="contrasena" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{EB48595C-0907-F949-A21F-B73396902BA0}" name="placa" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{80882913-6D61-9546-8FC4-EE8BCE5E0FF4}" name="vigencia" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{876CCFCE-44AF-314D-A7D0-391BC2E5C61F}" name="numeroUsuario" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{EE8EC51C-22E7-1941-A05E-F410F3CE11F0}" name="contrasena" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{EB48595C-0907-F949-A21F-B73396902BA0}" name="placa" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{80882913-6D61-9546-8FC4-EE8BCE5E0FF4}" name="vigencia" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1876BF42-C053-8B48-A4EB-685A12814D7A}" name="Tabla35" displayName="Tabla35" ref="A1:D2" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1876BF42-C053-8B48-A4EB-685A12814D7A}" name="Tabla35" displayName="Tabla35" ref="A1:D2" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{605DC223-A3BB-6B47-83F6-5A01BE77764D}" name="numeroUsuario" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{38143C87-8A82-3D44-BDC4-AD26063C0653}" name="contrasena" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{968E6885-0322-B446-9D81-DBD610D3D7C0}" name="placa" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{AA7C16CA-62ED-794F-AB8B-923796349AAB}" name="vigencia" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{605DC223-A3BB-6B47-83F6-5A01BE77764D}" name="numeroUsuario" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{38143C87-8A82-3D44-BDC4-AD26063C0653}" name="contrasena" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{968E6885-0322-B446-9D81-DBD610D3D7C0}" name="placa" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{AA7C16CA-62ED-794F-AB8B-923796349AAB}" name="vigencia" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -925,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AA77F2-0857-FA48-A69B-EB35352C8AD3}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -957,10 +896,10 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1"/>
@@ -977,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590629F7-CBA8-9E4D-BA08-A10D723F7D3C}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1004,16 +943,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1030,7 +969,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1061,10 +1000,10 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1"/>

--- a/src/test/resources/datadriven/Pagos/Pago_historial_data.xlsx
+++ b/src/test/resources/datadriven/Pagos/Pago_historial_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macboockprochm3572/Documents/rimac/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/Pagos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C548356C-005C-B742-8484-8750F4CF95F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B5E1C4-FD2D-F044-B466-9A187A885D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="760" windowWidth="25960" windowHeight="18880" activeTab="1" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
+    <workbookView xWindow="4280" yWindow="760" windowWidth="25960" windowHeight="18880" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
   </bookViews>
   <sheets>
     <sheet name="CronogramaPagosVehicular" sheetId="1" r:id="rId1"/>
@@ -64,13 +64,13 @@
     <t>24/08/2025</t>
   </si>
   <si>
-    <t>40883522</t>
+    <t>92809136</t>
   </si>
   <si>
-    <t>B2L-001</t>
+    <t>PNK-54K</t>
   </si>
   <si>
-    <t>07/05/2025</t>
+    <t>02/10/2025</t>
   </si>
 </sst>
 </file>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AA77F2-0857-FA48-A69B-EB35352C8AD3}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590629F7-CBA8-9E4D-BA08-A10D723F7D3C}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/datadriven/Pagos/Pago_historial_data.xlsx
+++ b/src/test/resources/datadriven/Pagos/Pago_historial_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macboockprochm3572/Documents/rimac/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/Pagos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B5E1C4-FD2D-F044-B466-9A187A885D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433523B4-B862-5543-88FD-EB333754055D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4280" yWindow="760" windowWidth="25960" windowHeight="18880" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>numeroUsuario</t>
   </si>
@@ -64,13 +64,16 @@
     <t>24/08/2025</t>
   </si>
   <si>
-    <t>92809136</t>
-  </si>
-  <si>
-    <t>PNK-54K</t>
-  </si>
-  <si>
-    <t>02/10/2025</t>
+    <t>71652978</t>
+  </si>
+  <si>
+    <t>HET-651</t>
+  </si>
+  <si>
+    <t>07/10/2025</t>
+  </si>
+  <si>
+    <t>TKM-992</t>
   </si>
 </sst>
 </file>
@@ -193,38 +196,6 @@
       </font>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Helvetica Neue"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -344,6 +315,24 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -373,6 +362,20 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -544,22 +547,22 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{13FA4875-8E54-084E-AAD7-F8DB05AD9098}" name="Tabla33" displayName="Tabla33" ref="A1:D2" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{876CCFCE-44AF-314D-A7D0-391BC2E5C61F}" name="numeroUsuario" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{EE8EC51C-22E7-1941-A05E-F410F3CE11F0}" name="contrasena" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{EB48595C-0907-F949-A21F-B73396902BA0}" name="placa" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{80882913-6D61-9546-8FC4-EE8BCE5E0FF4}" name="vigencia" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{876CCFCE-44AF-314D-A7D0-391BC2E5C61F}" name="numeroUsuario" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{EE8EC51C-22E7-1941-A05E-F410F3CE11F0}" name="contrasena" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{EB48595C-0907-F949-A21F-B73396902BA0}" name="placa" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{80882913-6D61-9546-8FC4-EE8BCE5E0FF4}" name="vigencia" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1876BF42-C053-8B48-A4EB-685A12814D7A}" name="Tabla35" displayName="Tabla35" ref="A1:D2" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1876BF42-C053-8B48-A4EB-685A12814D7A}" name="Tabla35" displayName="Tabla35" ref="A1:D2" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{605DC223-A3BB-6B47-83F6-5A01BE77764D}" name="numeroUsuario" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{38143C87-8A82-3D44-BDC4-AD26063C0653}" name="contrasena" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{968E6885-0322-B446-9D81-DBD610D3D7C0}" name="placa" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{AA7C16CA-62ED-794F-AB8B-923796349AAB}" name="vigencia" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{605DC223-A3BB-6B47-83F6-5A01BE77764D}" name="numeroUsuario" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{38143C87-8A82-3D44-BDC4-AD26063C0653}" name="contrasena" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{968E6885-0322-B446-9D81-DBD610D3D7C0}" name="placa" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{AA7C16CA-62ED-794F-AB8B-923796349AAB}" name="vigencia" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -865,13 +868,14 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -917,7 +921,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -949,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>10</v>

--- a/src/test/resources/datadriven/Pagos/Pago_historial_data.xlsx
+++ b/src/test/resources/datadriven/Pagos/Pago_historial_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macboockprochm3572/Documents/rimac/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/Pagos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chm3572/Documents/GitHub/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/Pagos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433523B4-B862-5543-88FD-EB333754055D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613207D9-8B77-1E46-9731-D10A86093B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="760" windowWidth="25960" windowHeight="18880" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
+    <workbookView xWindow="4280" yWindow="760" windowWidth="24720" windowHeight="18880" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
   </bookViews>
   <sheets>
     <sheet name="CronogramaPagosVehicular" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>numeroUsuario</t>
   </si>
@@ -67,13 +67,19 @@
     <t>71652978</t>
   </si>
   <si>
-    <t>HET-651</t>
-  </si>
-  <si>
     <t>07/10/2025</t>
   </si>
   <si>
     <t>TKM-992</t>
+  </si>
+  <si>
+    <t>40975127</t>
+  </si>
+  <si>
+    <t>C3O-546</t>
+  </si>
+  <si>
+    <t>04/09/2025</t>
   </si>
 </sst>
 </file>
@@ -196,6 +202,38 @@
       </font>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -430,42 +468,10 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Helvetica Neue"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -535,34 +541,34 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8421684D-64BE-6543-A63D-56478229419C}" name="Tabla3" displayName="Tabla3" ref="A1:D2" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E6064DC8-CBA2-A84F-B806-649A14D552B1}" name="numeroUsuario" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{018C0E61-48B0-A646-A94A-E7D1C21BCCF9}" name="contrasena" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{E6064DC8-CBA2-A84F-B806-649A14D552B1}" name="numeroUsuario" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{018C0E61-48B0-A646-A94A-E7D1C21BCCF9}" name="contrasena" dataDxfId="18"/>
     <tableColumn id="3" xr3:uid="{6A76EB7D-171E-7F49-8A86-9794B3876387}" name="placa"/>
-    <tableColumn id="4" xr3:uid="{E0C83000-B072-674F-8D44-0EA1D04B7DED}" name="vigencia" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{E0C83000-B072-674F-8D44-0EA1D04B7DED}" name="vigencia" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{13FA4875-8E54-084E-AAD7-F8DB05AD9098}" name="Tabla33" displayName="Tabla33" ref="A1:D2" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{13FA4875-8E54-084E-AAD7-F8DB05AD9098}" name="Tabla33" displayName="Tabla33" ref="A1:D2" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{876CCFCE-44AF-314D-A7D0-391BC2E5C61F}" name="numeroUsuario" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{EE8EC51C-22E7-1941-A05E-F410F3CE11F0}" name="contrasena" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{EB48595C-0907-F949-A21F-B73396902BA0}" name="placa" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{80882913-6D61-9546-8FC4-EE8BCE5E0FF4}" name="vigencia" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{876CCFCE-44AF-314D-A7D0-391BC2E5C61F}" name="numeroUsuario" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{EE8EC51C-22E7-1941-A05E-F410F3CE11F0}" name="contrasena" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{EB48595C-0907-F949-A21F-B73396902BA0}" name="placa" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{80882913-6D61-9546-8FC4-EE8BCE5E0FF4}" name="vigencia" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1876BF42-C053-8B48-A4EB-685A12814D7A}" name="Tabla35" displayName="Tabla35" ref="A1:D2" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1876BF42-C053-8B48-A4EB-685A12814D7A}" name="Tabla35" displayName="Tabla35" ref="A1:D2" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{605DC223-A3BB-6B47-83F6-5A01BE77764D}" name="numeroUsuario" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{38143C87-8A82-3D44-BDC4-AD26063C0653}" name="contrasena" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{968E6885-0322-B446-9D81-DBD610D3D7C0}" name="placa" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{AA7C16CA-62ED-794F-AB8B-923796349AAB}" name="vigencia" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{605DC223-A3BB-6B47-83F6-5A01BE77764D}" name="numeroUsuario" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{38143C87-8A82-3D44-BDC4-AD26063C0653}" name="contrasena" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{968E6885-0322-B446-9D81-DBD610D3D7C0}" name="placa" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{AA7C16CA-62ED-794F-AB8B-923796349AAB}" name="vigencia" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -868,7 +874,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -895,16 +901,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -953,10 +959,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1"/>
     </row>

--- a/src/test/resources/datadriven/Pagos/Pago_historial_data.xlsx
+++ b/src/test/resources/datadriven/Pagos/Pago_historial_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chm3572/Documents/GitHub/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/Pagos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chm3572/GitChc/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/Pagos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613207D9-8B77-1E46-9731-D10A86093B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B856FFD0-E4AC-7445-92DC-CFD9219F3093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="760" windowWidth="24720" windowHeight="18880" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
+    <workbookView xWindow="4280" yWindow="760" windowWidth="24720" windowHeight="18880" activeTab="2" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
   </bookViews>
   <sheets>
     <sheet name="CronogramaPagosVehicular" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>numeroUsuario</t>
   </si>
@@ -55,31 +55,13 @@
     <t>vigencia</t>
   </si>
   <si>
-    <t>40898250</t>
+    <t>72934725</t>
   </si>
   <si>
-    <t>SIN-DAT</t>
+    <t>XFN-363</t>
   </si>
   <si>
-    <t>24/08/2025</t>
-  </si>
-  <si>
-    <t>71652978</t>
-  </si>
-  <si>
-    <t>07/10/2025</t>
-  </si>
-  <si>
-    <t>TKM-992</t>
-  </si>
-  <si>
-    <t>40975127</t>
-  </si>
-  <si>
-    <t>C3O-546</t>
-  </si>
-  <si>
-    <t>04/09/2025</t>
+    <t>06/11/2025</t>
   </si>
 </sst>
 </file>
@@ -234,6 +216,52 @@
       </font>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -286,20 +314,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -340,24 +354,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Helvetica Neue"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -412,20 +408,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -541,10 +523,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8421684D-64BE-6543-A63D-56478229419C}" name="Tabla3" displayName="Tabla3" ref="A1:D2" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E6064DC8-CBA2-A84F-B806-649A14D552B1}" name="numeroUsuario" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E6064DC8-CBA2-A84F-B806-649A14D552B1}" name="numeroUsuario" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{018C0E61-48B0-A646-A94A-E7D1C21BCCF9}" name="contrasena" dataDxfId="18"/>
     <tableColumn id="3" xr3:uid="{6A76EB7D-171E-7F49-8A86-9794B3876387}" name="placa"/>
-    <tableColumn id="4" xr3:uid="{E0C83000-B072-674F-8D44-0EA1D04B7DED}" name="vigencia" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{E0C83000-B072-674F-8D44-0EA1D04B7DED}" name="vigencia" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -553,22 +535,22 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{13FA4875-8E54-084E-AAD7-F8DB05AD9098}" name="Tabla33" displayName="Tabla33" ref="A1:D2" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{876CCFCE-44AF-314D-A7D0-391BC2E5C61F}" name="numeroUsuario" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{EE8EC51C-22E7-1941-A05E-F410F3CE11F0}" name="contrasena" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{EB48595C-0907-F949-A21F-B73396902BA0}" name="placa" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{80882913-6D61-9546-8FC4-EE8BCE5E0FF4}" name="vigencia" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{876CCFCE-44AF-314D-A7D0-391BC2E5C61F}" name="numeroUsuario" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{EE8EC51C-22E7-1941-A05E-F410F3CE11F0}" name="contrasena" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{EB48595C-0907-F949-A21F-B73396902BA0}" name="placa" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{80882913-6D61-9546-8FC4-EE8BCE5E0FF4}" name="vigencia" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1876BF42-C053-8B48-A4EB-685A12814D7A}" name="Tabla35" displayName="Tabla35" ref="A1:D2" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1876BF42-C053-8B48-A4EB-685A12814D7A}" name="Tabla35" displayName="Tabla35" ref="A1:D2" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{605DC223-A3BB-6B47-83F6-5A01BE77764D}" name="numeroUsuario" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{38143C87-8A82-3D44-BDC4-AD26063C0653}" name="contrasena" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{968E6885-0322-B446-9D81-DBD610D3D7C0}" name="placa" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{AA7C16CA-62ED-794F-AB8B-923796349AAB}" name="vigencia" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{605DC223-A3BB-6B47-83F6-5A01BE77764D}" name="numeroUsuario" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{38143C87-8A82-3D44-BDC4-AD26063C0653}" name="contrasena" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{968E6885-0322-B446-9D81-DBD610D3D7C0}" name="placa" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{AA7C16CA-62ED-794F-AB8B-923796349AAB}" name="vigencia" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -873,7 +855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AA77F2-0857-FA48-A69B-EB35352C8AD3}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -901,16 +883,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -927,7 +909,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -953,16 +935,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -978,14 +960,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9292AAEE-971B-0D4E-8758-18FF152AB043}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/src/test/resources/datadriven/Pagos/Pago_historial_data.xlsx
+++ b/src/test/resources/datadriven/Pagos/Pago_historial_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chm3572/GitChc/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/Pagos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B856FFD0-E4AC-7445-92DC-CFD9219F3093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061174CA-4523-FC4A-89C1-57994C24F888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4280" yWindow="760" windowWidth="24720" windowHeight="18880" activeTab="2" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>numeroUsuario</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>06/11/2025</t>
+  </si>
+  <si>
+    <t>XBV-171</t>
+  </si>
+  <si>
+    <t>11/11/2025</t>
   </si>
 </sst>
 </file>
@@ -184,84 +190,6 @@
       </font>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Helvetica Neue"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Helvetica Neue"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -314,6 +242,20 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -354,6 +296,24 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -408,6 +368,20 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -450,10 +424,42 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -523,33 +529,33 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8421684D-64BE-6543-A63D-56478229419C}" name="Tabla3" displayName="Tabla3" ref="A1:D2" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E6064DC8-CBA2-A84F-B806-649A14D552B1}" name="numeroUsuario" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{018C0E61-48B0-A646-A94A-E7D1C21BCCF9}" name="contrasena" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{E6064DC8-CBA2-A84F-B806-649A14D552B1}" name="numeroUsuario" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{018C0E61-48B0-A646-A94A-E7D1C21BCCF9}" name="contrasena" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{6A76EB7D-171E-7F49-8A86-9794B3876387}" name="placa"/>
-    <tableColumn id="4" xr3:uid="{E0C83000-B072-674F-8D44-0EA1D04B7DED}" name="vigencia" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E0C83000-B072-674F-8D44-0EA1D04B7DED}" name="vigencia" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{13FA4875-8E54-084E-AAD7-F8DB05AD9098}" name="Tabla33" displayName="Tabla33" ref="A1:D2" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{13FA4875-8E54-084E-AAD7-F8DB05AD9098}" name="Tabla33" displayName="Tabla33" ref="A1:D2" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{876CCFCE-44AF-314D-A7D0-391BC2E5C61F}" name="numeroUsuario" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{EE8EC51C-22E7-1941-A05E-F410F3CE11F0}" name="contrasena" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{EB48595C-0907-F949-A21F-B73396902BA0}" name="placa" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{80882913-6D61-9546-8FC4-EE8BCE5E0FF4}" name="vigencia" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{876CCFCE-44AF-314D-A7D0-391BC2E5C61F}" name="numeroUsuario" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{EE8EC51C-22E7-1941-A05E-F410F3CE11F0}" name="contrasena" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{EB48595C-0907-F949-A21F-B73396902BA0}" name="placa" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{80882913-6D61-9546-8FC4-EE8BCE5E0FF4}" name="vigencia" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1876BF42-C053-8B48-A4EB-685A12814D7A}" name="Tabla35" displayName="Tabla35" ref="A1:D2" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1876BF42-C053-8B48-A4EB-685A12814D7A}" name="Tabla35" displayName="Tabla35" ref="A1:D2" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{605DC223-A3BB-6B47-83F6-5A01BE77764D}" name="numeroUsuario" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{38143C87-8A82-3D44-BDC4-AD26063C0653}" name="contrasena" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{968E6885-0322-B446-9D81-DBD610D3D7C0}" name="placa" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{605DC223-A3BB-6B47-83F6-5A01BE77764D}" name="numeroUsuario" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{38143C87-8A82-3D44-BDC4-AD26063C0653}" name="contrasena" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{968E6885-0322-B446-9D81-DBD610D3D7C0}" name="placa" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{AA7C16CA-62ED-794F-AB8B-923796349AAB}" name="vigencia" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -856,7 +862,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -889,10 +895,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1"/>
     </row>

--- a/src/test/resources/datadriven/Pagos/Pago_historial_data.xlsx
+++ b/src/test/resources/datadriven/Pagos/Pago_historial_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chm3572/GitChc/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/Pagos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061174CA-4523-FC4A-89C1-57994C24F888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA23511-0369-DF40-86D1-307CD75DAD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="760" windowWidth="24720" windowHeight="18880" activeTab="2" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
+    <workbookView xWindow="4260" yWindow="760" windowWidth="24720" windowHeight="18880" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
   </bookViews>
   <sheets>
     <sheet name="CronogramaPagosVehicular" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>numeroUsuario</t>
   </si>
@@ -64,10 +64,13 @@
     <t>06/11/2025</t>
   </si>
   <si>
-    <t>XBV-171</t>
+    <t>72636759</t>
   </si>
   <si>
-    <t>11/11/2025</t>
+    <t>ZIJ-583</t>
+  </si>
+  <si>
+    <t>12/11/2025</t>
   </si>
 </sst>
 </file>
@@ -190,6 +193,38 @@
       </font>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -424,42 +459,10 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Helvetica Neue"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -529,34 +532,34 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8421684D-64BE-6543-A63D-56478229419C}" name="Tabla3" displayName="Tabla3" ref="A1:D2" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E6064DC8-CBA2-A84F-B806-649A14D552B1}" name="numeroUsuario" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{018C0E61-48B0-A646-A94A-E7D1C21BCCF9}" name="contrasena" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{E6064DC8-CBA2-A84F-B806-649A14D552B1}" name="numeroUsuario" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{018C0E61-48B0-A646-A94A-E7D1C21BCCF9}" name="contrasena" dataDxfId="18"/>
     <tableColumn id="3" xr3:uid="{6A76EB7D-171E-7F49-8A86-9794B3876387}" name="placa"/>
-    <tableColumn id="4" xr3:uid="{E0C83000-B072-674F-8D44-0EA1D04B7DED}" name="vigencia" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{E0C83000-B072-674F-8D44-0EA1D04B7DED}" name="vigencia" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{13FA4875-8E54-084E-AAD7-F8DB05AD9098}" name="Tabla33" displayName="Tabla33" ref="A1:D2" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{13FA4875-8E54-084E-AAD7-F8DB05AD9098}" name="Tabla33" displayName="Tabla33" ref="A1:D2" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{876CCFCE-44AF-314D-A7D0-391BC2E5C61F}" name="numeroUsuario" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{EE8EC51C-22E7-1941-A05E-F410F3CE11F0}" name="contrasena" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{EB48595C-0907-F949-A21F-B73396902BA0}" name="placa" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{80882913-6D61-9546-8FC4-EE8BCE5E0FF4}" name="vigencia" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{876CCFCE-44AF-314D-A7D0-391BC2E5C61F}" name="numeroUsuario" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{EE8EC51C-22E7-1941-A05E-F410F3CE11F0}" name="contrasena" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{EB48595C-0907-F949-A21F-B73396902BA0}" name="placa" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{80882913-6D61-9546-8FC4-EE8BCE5E0FF4}" name="vigencia" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1876BF42-C053-8B48-A4EB-685A12814D7A}" name="Tabla35" displayName="Tabla35" ref="A1:D2" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1876BF42-C053-8B48-A4EB-685A12814D7A}" name="Tabla35" displayName="Tabla35" ref="A1:D2" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{605DC223-A3BB-6B47-83F6-5A01BE77764D}" name="numeroUsuario" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{38143C87-8A82-3D44-BDC4-AD26063C0653}" name="contrasena" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{968E6885-0322-B446-9D81-DBD610D3D7C0}" name="placa" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{AA7C16CA-62ED-794F-AB8B-923796349AAB}" name="vigencia" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{605DC223-A3BB-6B47-83F6-5A01BE77764D}" name="numeroUsuario" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{38143C87-8A82-3D44-BDC4-AD26063C0653}" name="contrasena" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{968E6885-0322-B446-9D81-DBD610D3D7C0}" name="placa" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{AA7C16CA-62ED-794F-AB8B-923796349AAB}" name="vigencia" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -861,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AA77F2-0857-FA48-A69B-EB35352C8AD3}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -889,16 +892,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -966,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9292AAEE-971B-0D4E-8758-18FF152AB043}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/datadriven/Pagos/Pago_historial_data.xlsx
+++ b/src/test/resources/datadriven/Pagos/Pago_historial_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chm3572/GitChc/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/Pagos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA23511-0369-DF40-86D1-307CD75DAD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDAC687-3E3F-074D-8872-2B39AE00F543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="760" windowWidth="24720" windowHeight="18880" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
+    <workbookView xWindow="4280" yWindow="760" windowWidth="24720" windowHeight="18880" activeTab="2" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
   </bookViews>
   <sheets>
     <sheet name="CronogramaPagosVehicular" sheetId="1" r:id="rId1"/>
@@ -67,10 +67,10 @@
     <t>72636759</t>
   </si>
   <si>
-    <t>ZIJ-583</t>
+    <t>XXR-831</t>
   </si>
   <si>
-    <t>12/11/2025</t>
+    <t>15/11/2025</t>
   </si>
 </sst>
 </file>
@@ -193,38 +193,6 @@
       </font>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Helvetica Neue"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -459,10 +427,42 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -532,34 +532,34 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8421684D-64BE-6543-A63D-56478229419C}" name="Tabla3" displayName="Tabla3" ref="A1:D2" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E6064DC8-CBA2-A84F-B806-649A14D552B1}" name="numeroUsuario" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{018C0E61-48B0-A646-A94A-E7D1C21BCCF9}" name="contrasena" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{E6064DC8-CBA2-A84F-B806-649A14D552B1}" name="numeroUsuario" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{018C0E61-48B0-A646-A94A-E7D1C21BCCF9}" name="contrasena" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{6A76EB7D-171E-7F49-8A86-9794B3876387}" name="placa"/>
-    <tableColumn id="4" xr3:uid="{E0C83000-B072-674F-8D44-0EA1D04B7DED}" name="vigencia" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{E0C83000-B072-674F-8D44-0EA1D04B7DED}" name="vigencia" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{13FA4875-8E54-084E-AAD7-F8DB05AD9098}" name="Tabla33" displayName="Tabla33" ref="A1:D2" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{13FA4875-8E54-084E-AAD7-F8DB05AD9098}" name="Tabla33" displayName="Tabla33" ref="A1:D2" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{876CCFCE-44AF-314D-A7D0-391BC2E5C61F}" name="numeroUsuario" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{EE8EC51C-22E7-1941-A05E-F410F3CE11F0}" name="contrasena" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{EB48595C-0907-F949-A21F-B73396902BA0}" name="placa" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{80882913-6D61-9546-8FC4-EE8BCE5E0FF4}" name="vigencia" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{876CCFCE-44AF-314D-A7D0-391BC2E5C61F}" name="numeroUsuario" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{EE8EC51C-22E7-1941-A05E-F410F3CE11F0}" name="contrasena" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{EB48595C-0907-F949-A21F-B73396902BA0}" name="placa" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{80882913-6D61-9546-8FC4-EE8BCE5E0FF4}" name="vigencia" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1876BF42-C053-8B48-A4EB-685A12814D7A}" name="Tabla35" displayName="Tabla35" ref="A1:D2" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1876BF42-C053-8B48-A4EB-685A12814D7A}" name="Tabla35" displayName="Tabla35" ref="A1:D2" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{605DC223-A3BB-6B47-83F6-5A01BE77764D}" name="numeroUsuario" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{38143C87-8A82-3D44-BDC4-AD26063C0653}" name="contrasena" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{968E6885-0322-B446-9D81-DBD610D3D7C0}" name="placa" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{AA7C16CA-62ED-794F-AB8B-923796349AAB}" name="vigencia" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{605DC223-A3BB-6B47-83F6-5A01BE77764D}" name="numeroUsuario" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{38143C87-8A82-3D44-BDC4-AD26063C0653}" name="contrasena" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{968E6885-0322-B446-9D81-DBD610D3D7C0}" name="placa" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{AA7C16CA-62ED-794F-AB8B-923796349AAB}" name="vigencia" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AA77F2-0857-FA48-A69B-EB35352C8AD3}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -969,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9292AAEE-971B-0D4E-8758-18FF152AB043}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
